--- a/v0.7.1/StructureDefinition-HCXInsurancePlan.xlsx
+++ b/v0.7.1/StructureDefinition-HCXInsurancePlan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="379">
   <si>
     <t>Property</t>
   </si>
@@ -238,6 +238,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Details of a Health Insurance product/plan provided by an organization</t>
@@ -1672,10 +1676,10 @@
         <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>19</v>
@@ -1747,15 +1751,15 @@
         <v>72</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1766,7 +1770,7 @@
         <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>72</v>
@@ -1775,19 +1779,19 @@
         <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1837,13 +1841,13 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>72</v>
@@ -1860,10 +1864,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1874,7 +1878,7 @@
         <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>72</v>
@@ -1883,16 +1887,16 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1943,19 +1947,19 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>72</v>
@@ -1966,10 +1970,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1980,28 +1984,28 @@
         <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2051,19 +2055,19 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>72</v>
@@ -2074,10 +2078,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2088,7 +2092,7 @@
         <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>72</v>
@@ -2100,16 +2104,16 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2135,13 +2139,13 @@
         <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>72</v>
@@ -2159,19 +2163,19 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>72</v>
@@ -2182,21 +2186,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -2208,16 +2212,16 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2267,37 +2271,37 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2316,16 +2320,16 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2375,7 +2379,7 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>73</v>
@@ -2393,19 +2397,19 @@
         <v>72</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2424,16 +2428,16 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2483,7 +2487,7 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
@@ -2495,25 +2499,25 @@
         <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2526,25 +2530,25 @@
         <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>72</v>
@@ -2593,7 +2597,7 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
@@ -2605,21 +2609,21 @@
         <v>72</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2639,16 +2643,16 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2699,7 +2703,7 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
@@ -2708,24 +2712,24 @@
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2736,35 +2740,35 @@
         <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>72</v>
@@ -2785,13 +2789,13 @@
         <v>72</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>72</v>
@@ -2809,33 +2813,33 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2855,16 +2859,16 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2891,13 +2895,13 @@
         <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>72</v>
@@ -2915,7 +2919,7 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
@@ -2927,21 +2931,21 @@
         <v>72</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2952,7 +2956,7 @@
         <v>73</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>72</v>
@@ -2961,19 +2965,19 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3023,33 +3027,33 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3072,19 +3076,19 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>72</v>
@@ -3133,7 +3137,7 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>73</v>
@@ -3145,21 +3149,21 @@
         <v>72</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3170,7 +3174,7 @@
         <v>73</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>72</v>
@@ -3182,13 +3186,13 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3239,19 +3243,19 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>72</v>
@@ -3262,21 +3266,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>72</v>
@@ -3285,16 +3289,16 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3345,19 +3349,19 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>72</v>
@@ -3368,10 +3372,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3382,7 +3386,7 @@
         <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -3391,16 +3395,16 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3451,19 +3455,19 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>72</v>
@@ -3474,10 +3478,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3497,16 +3501,16 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3557,7 +3561,7 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -3569,7 +3573,7 @@
         <v>72</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>72</v>
@@ -3580,10 +3584,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3606,19 +3610,19 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>72</v>
@@ -3667,7 +3671,7 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
@@ -3679,21 +3683,21 @@
         <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3704,7 +3708,7 @@
         <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
@@ -3716,13 +3720,13 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3773,13 +3777,13 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
@@ -3791,19 +3795,19 @@
         <v>72</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3822,16 +3826,16 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3881,7 +3885,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3893,25 +3897,25 @@
         <v>72</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3924,25 +3928,25 @@
         <v>72</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>72</v>
@@ -3991,7 +3995,7 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -4003,21 +4007,21 @@
         <v>72</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4028,7 +4032,7 @@
         <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -4040,17 +4044,17 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>72</v>
@@ -4075,13 +4079,13 @@
         <v>72</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>72</v>
@@ -4099,33 +4103,33 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4136,7 +4140,7 @@
         <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -4148,17 +4152,17 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>72</v>
@@ -4207,33 +4211,33 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4256,17 +4260,17 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>72</v>
@@ -4315,7 +4319,7 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -4327,21 +4331,21 @@
         <v>72</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4352,7 +4356,7 @@
         <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>72</v>
@@ -4364,17 +4368,17 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>72</v>
@@ -4423,33 +4427,33 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4472,17 +4476,17 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>72</v>
@@ -4531,7 +4535,7 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -4543,21 +4547,21 @@
         <v>72</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4580,16 +4584,16 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4639,7 +4643,7 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -4651,7 +4655,7 @@
         <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>72</v>
@@ -4662,10 +4666,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4688,13 +4692,13 @@
         <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4745,7 +4749,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -4757,7 +4761,7 @@
         <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>72</v>
@@ -4768,10 +4772,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4782,7 +4786,7 @@
         <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>72</v>
@@ -4794,13 +4798,13 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4851,13 +4855,13 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>72</v>
@@ -4869,19 +4873,19 @@
         <v>72</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4900,16 +4904,16 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4959,7 +4963,7 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -4971,25 +4975,25 @@
         <v>72</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5002,25 +5006,25 @@
         <v>72</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>72</v>
@@ -5069,7 +5073,7 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -5081,21 +5085,21 @@
         <v>72</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5103,10 +5107,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>72</v>
@@ -5118,13 +5122,13 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5175,19 +5179,19 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>72</v>
@@ -5198,10 +5202,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5224,16 +5228,16 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5283,7 +5287,7 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -5295,7 +5299,7 @@
         <v>72</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>72</v>
@@ -5306,10 +5310,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5317,7 +5321,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>74</v>
@@ -5332,13 +5336,13 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5389,10 +5393,10 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
@@ -5401,7 +5405,7 @@
         <v>72</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>72</v>
@@ -5412,10 +5416,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5426,7 +5430,7 @@
         <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>72</v>
@@ -5438,13 +5442,13 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5495,13 +5499,13 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>72</v>
@@ -5513,19 +5517,19 @@
         <v>72</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5544,16 +5548,16 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5603,7 +5607,7 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -5615,25 +5619,25 @@
         <v>72</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5646,25 +5650,25 @@
         <v>72</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>72</v>
@@ -5713,7 +5717,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -5725,21 +5729,21 @@
         <v>72</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5747,10 +5751,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>72</v>
@@ -5762,13 +5766,13 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5819,19 +5823,19 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>72</v>
@@ -5842,10 +5846,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5856,7 +5860,7 @@
         <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>72</v>
@@ -5868,13 +5872,13 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5925,19 +5929,19 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>72</v>
@@ -5948,10 +5952,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5974,13 +5978,13 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6031,7 +6035,7 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -6043,7 +6047,7 @@
         <v>72</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>72</v>
@@ -6054,10 +6058,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6068,7 +6072,7 @@
         <v>73</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>72</v>
@@ -6080,13 +6084,13 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6137,13 +6141,13 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>72</v>
@@ -6155,19 +6159,19 @@
         <v>72</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6186,16 +6190,16 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6245,7 +6249,7 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -6257,25 +6261,25 @@
         <v>72</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6288,25 +6292,25 @@
         <v>72</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>72</v>
@@ -6355,7 +6359,7 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
@@ -6367,21 +6371,21 @@
         <v>72</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6392,7 +6396,7 @@
         <v>73</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>72</v>
@@ -6404,16 +6408,16 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6463,19 +6467,19 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>72</v>
@@ -6486,10 +6490,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6500,7 +6504,7 @@
         <v>73</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>72</v>
@@ -6512,16 +6516,16 @@
         <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6571,19 +6575,19 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>72</v>
@@ -6594,10 +6598,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6620,13 +6624,13 @@
         <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6677,7 +6681,7 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
@@ -6689,7 +6693,7 @@
         <v>72</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>72</v>
@@ -6700,10 +6704,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6714,7 +6718,7 @@
         <v>73</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>72</v>
@@ -6726,13 +6730,13 @@
         <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6783,13 +6787,13 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>72</v>
@@ -6801,15 +6805,15 @@
         <v>72</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6832,13 +6836,13 @@
         <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6877,17 +6881,17 @@
         <v>72</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -6899,7 +6903,7 @@
         <v>72</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>72</v>
@@ -6910,13 +6914,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>72</v>
@@ -6938,13 +6942,13 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6995,7 +6999,7 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
@@ -7004,10 +7008,10 @@
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>72</v>
@@ -7018,13 +7022,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>72</v>
@@ -7046,13 +7050,13 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7103,7 +7107,7 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
@@ -7112,10 +7116,10 @@
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>72</v>
@@ -7126,14 +7130,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7146,25 +7150,25 @@
         <v>72</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>72</v>
@@ -7213,7 +7217,7 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
@@ -7225,21 +7229,21 @@
         <v>72</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7259,16 +7263,16 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7319,7 +7323,7 @@
         <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>73</v>
@@ -7331,21 +7335,21 @@
         <v>72</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7356,7 +7360,7 @@
         <v>73</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>72</v>
@@ -7368,13 +7372,13 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7425,19 +7429,19 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>72</v>
@@ -7448,10 +7452,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7471,16 +7475,16 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7531,7 +7535,7 @@
         <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
@@ -7543,7 +7547,7 @@
         <v>72</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>72</v>
@@ -7554,10 +7558,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7580,16 +7584,16 @@
         <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7639,7 +7643,7 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
@@ -7651,7 +7655,7 @@
         <v>72</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>72</v>
@@ -7662,10 +7666,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7688,13 +7692,13 @@
         <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7745,7 +7749,7 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
@@ -7757,7 +7761,7 @@
         <v>72</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>72</v>
@@ -7768,10 +7772,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7782,7 +7786,7 @@
         <v>73</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>72</v>
@@ -7794,13 +7798,13 @@
         <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7851,13 +7855,13 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>72</v>
@@ -7869,19 +7873,19 @@
         <v>72</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -7900,16 +7904,16 @@
         <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -7959,7 +7963,7 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
@@ -7971,25 +7975,25 @@
         <v>72</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8002,25 +8006,25 @@
         <v>72</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>72</v>
@@ -8069,7 +8073,7 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
@@ -8081,21 +8085,21 @@
         <v>72</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8106,7 +8110,7 @@
         <v>73</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>72</v>
@@ -8118,13 +8122,13 @@
         <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8175,19 +8179,19 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>72</v>
@@ -8198,10 +8202,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8212,7 +8216,7 @@
         <v>73</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>72</v>
@@ -8224,13 +8228,13 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8281,19 +8285,19 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>72</v>
@@ -8304,10 +8308,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8318,7 +8322,7 @@
         <v>73</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>72</v>
@@ -8330,13 +8334,13 @@
         <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8387,19 +8391,19 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>72</v>
@@ -8410,10 +8414,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8424,7 +8428,7 @@
         <v>73</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>72</v>
@@ -8436,13 +8440,13 @@
         <v>72</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8493,19 +8497,19 @@
         <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>72</v>
@@ -8516,10 +8520,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8542,13 +8546,13 @@
         <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8599,7 +8603,7 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
@@ -8611,7 +8615,7 @@
         <v>72</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>72</v>
@@ -8622,10 +8626,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8636,7 +8640,7 @@
         <v>73</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>72</v>
@@ -8648,13 +8652,13 @@
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8705,13 +8709,13 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>72</v>
@@ -8723,19 +8727,19 @@
         <v>72</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -8754,16 +8758,16 @@
         <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -8813,7 +8817,7 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>73</v>
@@ -8825,25 +8829,25 @@
         <v>72</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -8856,25 +8860,25 @@
         <v>72</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>72</v>
@@ -8923,7 +8927,7 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
@@ -8935,21 +8939,21 @@
         <v>72</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8957,10 +8961,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>72</v>
@@ -8972,13 +8976,13 @@
         <v>72</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9029,19 +9033,19 @@
         <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>72</v>
@@ -9052,10 +9056,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9078,13 +9082,13 @@
         <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9135,7 +9139,7 @@
         <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
@@ -9147,7 +9151,7 @@
         <v>72</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>72</v>
@@ -9158,10 +9162,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9172,7 +9176,7 @@
         <v>73</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>72</v>
@@ -9184,13 +9188,13 @@
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9241,13 +9245,13 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>72</v>
@@ -9259,15 +9263,15 @@
         <v>72</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9290,13 +9294,13 @@
         <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9335,17 +9339,17 @@
         <v>72</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AC73" s="2"/>
       <c r="AD73" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>73</v>
@@ -9357,7 +9361,7 @@
         <v>72</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>72</v>
@@ -9368,13 +9372,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="B74" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="C74" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>72</v>
@@ -9396,13 +9400,13 @@
         <v>72</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9453,7 +9457,7 @@
         <v>72</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>73</v>
@@ -9462,10 +9466,10 @@
         <v>74</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>72</v>
@@ -9476,13 +9480,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>72</v>
@@ -9504,13 +9508,13 @@
         <v>72</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9561,7 +9565,7 @@
         <v>72</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>73</v>
@@ -9570,10 +9574,10 @@
         <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>72</v>
@@ -9584,13 +9588,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>72</v>
@@ -9612,13 +9616,13 @@
         <v>72</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9669,7 +9673,7 @@
         <v>72</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>73</v>
@@ -9678,10 +9682,10 @@
         <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>72</v>
@@ -9692,14 +9696,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -9712,25 +9716,25 @@
         <v>72</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>72</v>
@@ -9779,7 +9783,7 @@
         <v>72</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>73</v>
@@ -9791,21 +9795,21 @@
         <v>72</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9813,10 +9817,10 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>72</v>
@@ -9828,13 +9832,13 @@
         <v>72</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -9885,19 +9889,19 @@
         <v>72</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>72</v>
@@ -9908,10 +9912,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9934,13 +9938,13 @@
         <v>72</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9991,7 +9995,7 @@
         <v>72</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>73</v>
@@ -10003,7 +10007,7 @@
         <v>72</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>72</v>
@@ -10014,10 +10018,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10028,7 +10032,7 @@
         <v>73</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>72</v>
@@ -10040,13 +10044,13 @@
         <v>72</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10097,13 +10101,13 @@
         <v>72</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>72</v>
@@ -10115,19 +10119,19 @@
         <v>72</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -10146,16 +10150,16 @@
         <v>72</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -10205,7 +10209,7 @@
         <v>72</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>73</v>
@@ -10217,25 +10221,25 @@
         <v>72</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -10248,25 +10252,25 @@
         <v>72</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>72</v>
@@ -10315,7 +10319,7 @@
         <v>72</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>73</v>
@@ -10327,21 +10331,21 @@
         <v>72</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10349,10 +10353,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>72</v>
@@ -10364,13 +10368,13 @@
         <v>72</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10421,19 +10425,19 @@
         <v>72</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>72</v>
@@ -10444,10 +10448,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10458,7 +10462,7 @@
         <v>73</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>72</v>
@@ -10470,13 +10474,13 @@
         <v>72</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10503,13 +10507,13 @@
         <v>72</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>72</v>
@@ -10527,19 +10531,19 @@
         <v>72</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>72</v>
@@ -10550,10 +10554,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10576,13 +10580,13 @@
         <v>72</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -10633,7 +10637,7 @@
         <v>72</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>73</v>
@@ -10645,7 +10649,7 @@
         <v>72</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>72</v>
@@ -10656,10 +10660,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10670,7 +10674,7 @@
         <v>73</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>72</v>
@@ -10682,13 +10686,13 @@
         <v>72</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -10739,19 +10743,19 @@
         <v>72</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>72</v>
